--- a/resources/experiment 2/metrics/R2/average time/Neuropatía.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Neuropatía.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9812745676877195</v>
+        <v>0.9985720097232855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9812745676877195</v>
+        <v>0.9986063153366346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9812745676877195</v>
+        <v>0.9864793705643443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991733751981577</v>
+        <v>0.9981685101656613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991733751981577</v>
+        <v>0.9983793906161081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9991733751981577</v>
+        <v>0.9689077937458949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.940610201683187</v>
+        <v>0.9991267954765871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.940610201683187</v>
+        <v>0.9990471027046756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.940610201683187</v>
+        <v>0.9981279713680499</v>
       </c>
     </row>
   </sheetData>
